--- a/bedv_Individual_project_python/ResultHard — копия.xlsx
+++ b/bedv_Individual_project_python/ResultHard — копия.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio 2017\Projects\bedv_Individual_project_python\bedv_Individual_project_python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="hard" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,17 +121,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,9 +177,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +211,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +246,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,14 +422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -442,7 +465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -456,7 +479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -470,7 +493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -484,7 +507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -498,7 +521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
